--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam15-Itga9.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam15-Itga9.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H2">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I2">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J2">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.89596538705681</v>
+        <v>2.237200333333333</v>
       </c>
       <c r="N2">
-        <v>1.89596538705681</v>
+        <v>6.711601</v>
       </c>
       <c r="O2">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="P2">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="Q2">
-        <v>89.46603543835428</v>
+        <v>113.4443475041919</v>
       </c>
       <c r="R2">
-        <v>89.46603543835428</v>
+        <v>1020.999127537727</v>
       </c>
       <c r="S2">
-        <v>0.05989020695703075</v>
+        <v>0.0634641418657684</v>
       </c>
       <c r="T2">
-        <v>0.05989020695703075</v>
+        <v>0.06346414186576839</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H3">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I3">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J3">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.15277672525489</v>
+        <v>3.153682</v>
       </c>
       <c r="N3">
-        <v>3.15277672525489</v>
+        <v>9.461046</v>
       </c>
       <c r="O3">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="P3">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="Q3">
-        <v>148.7719323129293</v>
+        <v>159.9174608528047</v>
       </c>
       <c r="R3">
-        <v>148.7719323129293</v>
+        <v>1439.257147675242</v>
       </c>
       <c r="S3">
-        <v>0.09959066333902819</v>
+        <v>0.08946258359854237</v>
       </c>
       <c r="T3">
-        <v>0.09959066333902819</v>
+        <v>0.08946258359854237</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H4">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I4">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J4">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.6574161676494</v>
+        <v>13.44189533333333</v>
       </c>
       <c r="N4">
-        <v>12.6574161676494</v>
+        <v>40.325686</v>
       </c>
       <c r="O4">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="P4">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="Q4">
-        <v>597.2729518922323</v>
+        <v>681.6139898556137</v>
       </c>
       <c r="R4">
-        <v>597.2729518922323</v>
+        <v>6134.525908700522</v>
       </c>
       <c r="S4">
-        <v>0.399825481518179</v>
+        <v>0.3813151373477701</v>
       </c>
       <c r="T4">
-        <v>0.399825481518179</v>
+        <v>0.38131513734777</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>47.1875889977276</v>
+        <v>50.70817566666667</v>
       </c>
       <c r="H5">
-        <v>47.1875889977276</v>
+        <v>152.124527</v>
       </c>
       <c r="I5">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027078</v>
       </c>
       <c r="J5">
-        <v>0.5763995140553624</v>
+        <v>0.5661129211027077</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.541124260728804</v>
+        <v>1.123499666666667</v>
       </c>
       <c r="N5">
-        <v>0.541124260728804</v>
+        <v>3.370499</v>
       </c>
       <c r="O5">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="P5">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="Q5">
-        <v>25.53434921197</v>
+        <v>56.97061845877479</v>
       </c>
       <c r="R5">
-        <v>25.53434921197</v>
+        <v>512.735566128973</v>
       </c>
       <c r="S5">
-        <v>0.01709316224112443</v>
+        <v>0.03187105829062701</v>
       </c>
       <c r="T5">
-        <v>0.01709316224112443</v>
+        <v>0.031871058290627</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H6">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I6">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J6">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.89596538705681</v>
+        <v>2.237200333333333</v>
       </c>
       <c r="N6">
-        <v>1.89596538705681</v>
+        <v>6.711601</v>
       </c>
       <c r="O6">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="P6">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="Q6">
-        <v>32.21778384864881</v>
+        <v>38.22667668627889</v>
       </c>
       <c r="R6">
-        <v>32.21778384864881</v>
+        <v>344.04009017651</v>
       </c>
       <c r="S6">
-        <v>0.0215671761125705</v>
+        <v>0.0213851398121464</v>
       </c>
       <c r="T6">
-        <v>0.0215671761125705</v>
+        <v>0.0213851398121464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H7">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I7">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J7">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.15277672525489</v>
+        <v>3.153682</v>
       </c>
       <c r="N7">
-        <v>3.15277672525489</v>
+        <v>9.461046</v>
       </c>
       <c r="O7">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="P7">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="Q7">
-        <v>53.57454294827235</v>
+        <v>53.88644923260667</v>
       </c>
       <c r="R7">
-        <v>53.57454294827235</v>
+        <v>484.97804309346</v>
       </c>
       <c r="S7">
-        <v>0.03586378282081375</v>
+        <v>0.03014568230130909</v>
       </c>
       <c r="T7">
-        <v>0.03586378282081375</v>
+        <v>0.03014568230130909</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H8">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I8">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J8">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.6574161676494</v>
+        <v>13.44189533333333</v>
       </c>
       <c r="N8">
-        <v>12.6574161676494</v>
+        <v>40.325686</v>
       </c>
       <c r="O8">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="P8">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="Q8">
-        <v>215.0850964662163</v>
+        <v>229.6794700510956</v>
       </c>
       <c r="R8">
-        <v>215.0850964662163</v>
+        <v>2067.11523045986</v>
       </c>
       <c r="S8">
-        <v>0.1439819131094782</v>
+        <v>0.1284895262889905</v>
       </c>
       <c r="T8">
-        <v>0.1439819131094782</v>
+        <v>0.1284895262889905</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.9928122467794</v>
+        <v>17.08683666666667</v>
       </c>
       <c r="H9">
-        <v>16.9928122467794</v>
+        <v>51.26051</v>
       </c>
       <c r="I9">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="J9">
-        <v>0.2075683231442347</v>
+        <v>0.1907597520636141</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.541124260728804</v>
+        <v>1.123499666666667</v>
       </c>
       <c r="N9">
-        <v>0.541124260728804</v>
+        <v>3.370499</v>
       </c>
       <c r="O9">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="P9">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="Q9">
-        <v>9.195222964741872</v>
+        <v>19.19705529938778</v>
       </c>
       <c r="R9">
-        <v>9.195222964741872</v>
+        <v>172.77349769449</v>
       </c>
       <c r="S9">
-        <v>0.006155451101372316</v>
+        <v>0.01073940366116812</v>
       </c>
       <c r="T9">
-        <v>0.006155451101372316</v>
+        <v>0.01073940366116812</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H10">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I10">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J10">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.89596538705681</v>
+        <v>2.237200333333333</v>
       </c>
       <c r="N10">
-        <v>1.89596538705681</v>
+        <v>6.711601</v>
       </c>
       <c r="O10">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="P10">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="Q10">
-        <v>29.35997294829991</v>
+        <v>41.02835845891756</v>
       </c>
       <c r="R10">
-        <v>29.35997294829991</v>
+        <v>369.2552261302581</v>
       </c>
       <c r="S10">
-        <v>0.01965410501886046</v>
+        <v>0.02295248391869087</v>
       </c>
       <c r="T10">
-        <v>0.01965410501886046</v>
+        <v>0.02295248391869087</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H11">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I11">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J11">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.15277672525489</v>
+        <v>3.153682</v>
       </c>
       <c r="N11">
-        <v>3.15277672525489</v>
+        <v>9.461046</v>
       </c>
       <c r="O11">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="P11">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="Q11">
-        <v>48.82232555374153</v>
+        <v>57.83585566011867</v>
       </c>
       <c r="R11">
-        <v>48.82232555374153</v>
+        <v>520.522700941068</v>
       </c>
       <c r="S11">
-        <v>0.03268256123355161</v>
+        <v>0.03235509771349556</v>
       </c>
       <c r="T11">
-        <v>0.03268256123355161</v>
+        <v>0.03235509771349557</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H12">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I12">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J12">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.6574161676494</v>
+        <v>13.44189533333333</v>
       </c>
       <c r="N12">
-        <v>12.6574161676494</v>
+        <v>40.325686</v>
       </c>
       <c r="O12">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="P12">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="Q12">
-        <v>196.0064243864939</v>
+        <v>246.5129706473543</v>
       </c>
       <c r="R12">
-        <v>196.0064243864939</v>
+        <v>2218.616735826188</v>
       </c>
       <c r="S12">
-        <v>0.1312102996840994</v>
+        <v>0.1379066871563398</v>
       </c>
       <c r="T12">
-        <v>0.1312102996840994</v>
+        <v>0.1379066871563398</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.4855004994984</v>
+        <v>18.33915266666667</v>
       </c>
       <c r="H13">
-        <v>15.4855004994984</v>
+        <v>55.017458</v>
       </c>
       <c r="I13">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="J13">
-        <v>0.189156410666474</v>
+        <v>0.2047407770084672</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.541124260728804</v>
+        <v>1.123499666666667</v>
       </c>
       <c r="N13">
-        <v>0.541124260728804</v>
+        <v>3.370499</v>
       </c>
       <c r="O13">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="P13">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="Q13">
-        <v>8.379580009806597</v>
+        <v>20.60403190794911</v>
       </c>
       <c r="R13">
-        <v>8.379580009806597</v>
+        <v>185.436287171542</v>
       </c>
       <c r="S13">
-        <v>0.005609444729962503</v>
+        <v>0.01152650821994091</v>
       </c>
       <c r="T13">
-        <v>0.005609444729962503</v>
+        <v>0.01152650821994091</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H14">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I14">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J14">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.89596538705681</v>
+        <v>2.237200333333333</v>
       </c>
       <c r="N14">
-        <v>1.89596538705681</v>
+        <v>6.711601</v>
       </c>
       <c r="O14">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="P14">
-        <v>0.1039039858581116</v>
+        <v>0.1121050933480713</v>
       </c>
       <c r="Q14">
-        <v>4.171528487124209</v>
+        <v>7.692347119327001</v>
       </c>
       <c r="R14">
-        <v>4.171528487124209</v>
+        <v>69.23112407394301</v>
       </c>
       <c r="S14">
-        <v>0.002792497769649845</v>
+        <v>0.004303327751465665</v>
       </c>
       <c r="T14">
-        <v>0.002792497769649845</v>
+        <v>0.004303327751465665</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H15">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I15">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J15">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.15277672525489</v>
+        <v>3.153682</v>
       </c>
       <c r="N15">
-        <v>3.15277672525489</v>
+        <v>9.461046</v>
       </c>
       <c r="O15">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="P15">
-        <v>0.1727806164136749</v>
+        <v>0.158029573718759</v>
       </c>
       <c r="Q15">
-        <v>6.936781658951705</v>
+        <v>10.843560268842</v>
       </c>
       <c r="R15">
-        <v>6.936781658951705</v>
+        <v>97.59204241957801</v>
       </c>
       <c r="S15">
-        <v>0.004643609020281349</v>
+        <v>0.00606621010541199</v>
       </c>
       <c r="T15">
-        <v>0.004643609020281349</v>
+        <v>0.006066210105411991</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H16">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I16">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J16">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>12.6574161676494</v>
+        <v>13.44189533333333</v>
       </c>
       <c r="N16">
-        <v>12.6574161676494</v>
+        <v>40.325686</v>
       </c>
       <c r="O16">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="P16">
-        <v>0.6936603376105142</v>
+        <v>0.6735672745377762</v>
       </c>
       <c r="Q16">
-        <v>27.84901690568357</v>
+        <v>46.218357518122</v>
       </c>
       <c r="R16">
-        <v>27.84901690568357</v>
+        <v>415.9652176630981</v>
       </c>
       <c r="S16">
-        <v>0.01864264329875751</v>
+        <v>0.02585592374467589</v>
       </c>
       <c r="T16">
-        <v>0.01864264329875751</v>
+        <v>0.02585592374467589</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.20021341929657</v>
+        <v>3.438381</v>
       </c>
       <c r="H17">
-        <v>2.20021341929657</v>
+        <v>10.315143</v>
       </c>
       <c r="I17">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="J17">
-        <v>0.02687575213392875</v>
+        <v>0.03838654982521095</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.541124260728804</v>
+        <v>1.123499666666667</v>
       </c>
       <c r="N17">
-        <v>0.541124260728804</v>
+        <v>3.370499</v>
       </c>
       <c r="O17">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="P17">
-        <v>0.0296550601176993</v>
+        <v>0.05629805839539345</v>
       </c>
       <c r="Q17">
-        <v>1.190588859962451</v>
+        <v>3.863019907373001</v>
       </c>
       <c r="R17">
-        <v>1.190588859962451</v>
+        <v>34.767179166357</v>
       </c>
       <c r="S17">
-        <v>0.0007970020452400424</v>
+        <v>0.002161088223657406</v>
       </c>
       <c r="T17">
-        <v>0.0007970020452400424</v>
+        <v>0.002161088223657406</v>
       </c>
     </row>
   </sheetData>
